--- a/data/trans_dic/P05A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P05A_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2485635096192991</v>
+        <v>0.2535734927938631</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3131495979287513</v>
+        <v>0.3184641858551958</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3076526594965281</v>
+        <v>0.306174545043672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1265119184646723</v>
+        <v>0.1273392815363197</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2986110976311452</v>
+        <v>0.2912813746673662</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3194475462896179</v>
+        <v>0.3230724424023633</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.292138726567419</v>
+        <v>0.2904059158109605</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1929271239870876</v>
+        <v>0.1892298943769407</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.286277640398201</v>
+        <v>0.2838305316241867</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3302958856561956</v>
+        <v>0.3324781145572935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3112649163606253</v>
+        <v>0.3115741107802695</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1742359367639455</v>
+        <v>0.1681931554159661</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3361381752074351</v>
+        <v>0.3331696911477405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.407550459972469</v>
+        <v>0.4096453080706165</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4013246173957248</v>
+        <v>0.3974555764210271</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2520139575995305</v>
+        <v>0.2538324022318483</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.379322090811813</v>
+        <v>0.3823641827214005</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4151490181516651</v>
+        <v>0.414395157502156</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3850572518160668</v>
+        <v>0.3816015069776655</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3175164316959572</v>
+        <v>0.3161364662168738</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3422603861522331</v>
+        <v>0.3445685908327579</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3957128260181206</v>
+        <v>0.3970664961087948</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3817138980443096</v>
+        <v>0.3788239984977088</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.259475981374694</v>
+        <v>0.2558664829498727</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.3754703247796441</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1937393207646891</v>
+        <v>0.193739320764689</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2429338434969101</v>
+        <v>0.2444583754386571</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3603082438716016</v>
+        <v>0.3591804480663103</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3248399808115771</v>
+        <v>0.3278996921558376</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1419624302771232</v>
+        <v>0.1362401564582569</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2809797484588078</v>
+        <v>0.2852403565343911</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3384999149282794</v>
+        <v>0.339783517197785</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3444954731767259</v>
+        <v>0.3460724378895245</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1643937990446455</v>
+        <v>0.1682864344567279</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2742440348128847</v>
+        <v>0.271562600107711</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.36354692917003</v>
+        <v>0.3613073108183774</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3480146842663062</v>
+        <v>0.3476103281475627</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1655629062922078</v>
+        <v>0.1642735515043436</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3121010667168528</v>
+        <v>0.3163350497155673</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4370429293767379</v>
+        <v>0.4358472265830852</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4039725823660287</v>
+        <v>0.4063558401830247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2364557005967405</v>
+        <v>0.234679405365838</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3571915058725639</v>
+        <v>0.3626093429950389</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4208341128994394</v>
+        <v>0.422327394463279</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4222286034958554</v>
+        <v>0.421674369982265</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2413763539009051</v>
+        <v>0.2434527658502166</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3251833401811622</v>
+        <v>0.3250998770292021</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4147750570153164</v>
+        <v>0.4170169831252095</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4053255091852326</v>
+        <v>0.4044444426596533</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2228988408963151</v>
+        <v>0.2211588112081556</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3764959442326988</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2064436184059489</v>
+        <v>0.2064436184059488</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3390004615113845</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2615346129661117</v>
+        <v>0.2671396331290876</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3475073945045066</v>
+        <v>0.3452470511066592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2984656817349206</v>
+        <v>0.2986326526997315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1792834131032568</v>
+        <v>0.1785180579227399</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3380007163587774</v>
+        <v>0.3399386930584605</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3700750411073598</v>
+        <v>0.366761721347517</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.339067060022883</v>
+        <v>0.3397646212594169</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1784139785220881</v>
+        <v>0.1785121475361923</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3116027604014775</v>
+        <v>0.3139287565972009</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3685843768098662</v>
+        <v>0.3685857098105486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3292951482148012</v>
+        <v>0.3293654505917001</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1880510991112997</v>
+        <v>0.1856535278039064</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3337551409824042</v>
+        <v>0.3413753943666251</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4252394050410059</v>
+        <v>0.4243853767190389</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3688969125995712</v>
+        <v>0.3694370624573506</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2500524570886031</v>
+        <v>0.2496107742973299</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4129067319384621</v>
+        <v>0.4133314655248227</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.446303670797889</v>
+        <v>0.4439432388874313</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4134426270061358</v>
+        <v>0.4127553361069334</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.232567072457505</v>
+        <v>0.2372399558687058</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.365600194684375</v>
+        <v>0.3655747288983858</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4212072895013658</v>
+        <v>0.420934206490111</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3795445130322221</v>
+        <v>0.3829674229607946</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2321868351877413</v>
+        <v>0.2293178919071686</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2819130416016096</v>
+        <v>0.2832269068353847</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3643176673096717</v>
+        <v>0.3585107673104709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3528079182733372</v>
+        <v>0.3514309137234803</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.179350171802734</v>
+        <v>0.1812191492321192</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3192082103094501</v>
+        <v>0.3105013233057099</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3978499596480492</v>
+        <v>0.3959505529388369</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.354280585932956</v>
+        <v>0.3508149779929757</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1898933158649514</v>
+        <v>0.1915719473313821</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3131694157070488</v>
+        <v>0.3107874859707401</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3905466161654139</v>
+        <v>0.3903120434754555</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.36658283931054</v>
+        <v>0.3658086527753951</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1948346540106541</v>
+        <v>0.1913904449193433</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3674521672868882</v>
+        <v>0.3674942273561111</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4478644230713759</v>
+        <v>0.4429837252665803</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4302923434257691</v>
+        <v>0.433791862393261</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2403160311963413</v>
+        <v>0.2413062323930412</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3983849052530484</v>
+        <v>0.3977462711366322</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4827094724789889</v>
+        <v>0.481180038921917</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.431302835028983</v>
+        <v>0.4328207960043801</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2401152652018742</v>
+        <v>0.236653980139438</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3745911253727338</v>
+        <v>0.3716360489972582</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4508528707049468</v>
+        <v>0.4491825666287192</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4231500130491254</v>
+        <v>0.4222797629107617</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2333174968018759</v>
+        <v>0.2311546075961536</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3724314205726438</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1865854793458818</v>
+        <v>0.1865854793458817</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2541878101335083</v>
+        <v>0.2577694521085795</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.385303553726412</v>
+        <v>0.384911861046718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3243724257403603</v>
+        <v>0.3298385295911303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1322614589194288</v>
+        <v>0.1368102694989783</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3256395878780743</v>
+        <v>0.3239116615748123</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3421315171705461</v>
+        <v>0.3454651728002832</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3292046370247418</v>
+        <v>0.3269113126558621</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1881520004588866</v>
+        <v>0.1849165724136794</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3026300152994024</v>
+        <v>0.3036437824086052</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3811310386387115</v>
+        <v>0.381504102833494</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3408313038263675</v>
+        <v>0.3430255584163279</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1682061994918378</v>
+        <v>0.1673187779845622</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3491717701458035</v>
+        <v>0.3533995902616538</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4860629280868634</v>
+        <v>0.4806540697449704</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4227144784140233</v>
+        <v>0.418114133348623</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1879596616878629</v>
+        <v>0.1915195487787181</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4150305029001697</v>
+        <v>0.4164459401748821</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4419542698501238</v>
+        <v>0.4390477534456804</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.42259321152598</v>
+        <v>0.4205128979913655</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.238354842510901</v>
+        <v>0.2373305144880775</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3679980707177137</v>
+        <v>0.3668675656321438</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4519764243685546</v>
+        <v>0.4521912794295693</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4031998385540588</v>
+        <v>0.4064718166606953</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2079448891141239</v>
+        <v>0.2055280813591201</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.3644356200683487</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1799127276089743</v>
+        <v>0.1799127276089742</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3104656195058532</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2275220731090603</v>
+        <v>0.2280110950398918</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3742307546321307</v>
+        <v>0.3800004389541238</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3349259015894716</v>
+        <v>0.3311795329036233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1476436911919604</v>
+        <v>0.149671778633094</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2902861575744526</v>
+        <v>0.2907506793967815</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3497912042529869</v>
+        <v>0.3472831154238554</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3119553334677697</v>
+        <v>0.3181994746561499</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1520287160783383</v>
+        <v>0.1524628717592139</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2793099702267906</v>
+        <v>0.2782528386974122</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.383730306092707</v>
+        <v>0.3779040497115304</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3371747433267059</v>
+        <v>0.3349673030963481</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1578142327255599</v>
+        <v>0.1585186690339082</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.323272885874291</v>
+        <v>0.3248092474788373</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5006320719432261</v>
+        <v>0.5035279951692969</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4409278165816606</v>
+        <v>0.4371561344713396</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2098877603312788</v>
+        <v>0.2113618670331526</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3836258724189827</v>
+        <v>0.3895824289391731</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4495837958647473</v>
+        <v>0.456384373470537</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4114409859126545</v>
+        <v>0.4231675628333004</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2082895785799239</v>
+        <v>0.2081481089862292</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.346831979261827</v>
+        <v>0.3473432674788324</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4589655808396239</v>
+        <v>0.4586461348385434</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4076965332668571</v>
+        <v>0.4120981016095435</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2005612178085431</v>
+        <v>0.2008380888384973</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2282228223306226</v>
+        <v>0.2279036384769156</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3021177923379682</v>
+        <v>0.3048351300841461</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2392107428040099</v>
+        <v>0.2430788544326168</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1140015778847061</v>
+        <v>0.1162747283867562</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2463719457819062</v>
+        <v>0.2462548507569198</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.332583275636143</v>
+        <v>0.3359340535802932</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2497901650251569</v>
+        <v>0.2462150477741676</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1366547229802077</v>
+        <v>0.1344618300730273</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2498360756149537</v>
+        <v>0.2506144744589033</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3457935630969584</v>
+        <v>0.3421579357671605</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.258764292524591</v>
+        <v>0.2594686908802941</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1341044766027657</v>
+        <v>0.1348410316050425</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3420525312036593</v>
+        <v>0.3469610247993732</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.431156008494062</v>
+        <v>0.4363481821165804</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3439605439831089</v>
+        <v>0.3546970326275072</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1824333426920586</v>
+        <v>0.183638627496445</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3468527319294241</v>
+        <v>0.3473507542881738</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4407606204785187</v>
+        <v>0.442312347431489</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3515062149005183</v>
+        <v>0.3515974885404768</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1899044304109618</v>
+        <v>0.1869554955139192</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.331404455469865</v>
+        <v>0.3330808818444435</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4229131927539932</v>
+        <v>0.4246932387379503</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3315497655167819</v>
+        <v>0.333095067980717</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1738220864260522</v>
+        <v>0.1779974299928869</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.280737893077274</v>
+        <v>0.2809946008227046</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3795916139937504</v>
+        <v>0.3788499154973507</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3416930709360902</v>
+        <v>0.3427556206614477</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1720396067193689</v>
+        <v>0.1716956382849639</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3261511653591103</v>
+        <v>0.3273618084042295</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3819625533530212</v>
+        <v>0.3809681368805406</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.348583962360794</v>
+        <v>0.3513104935364176</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1926147194750338</v>
+        <v>0.1927916764846581</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3085942606506412</v>
+        <v>0.3086580730625506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3859810807130303</v>
+        <v>0.3857709410091506</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3515708194827089</v>
+        <v>0.3518139525961006</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1854523332959428</v>
+        <v>0.1852919334136349</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3108917787262384</v>
+        <v>0.3126527666479297</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4159060776412247</v>
+        <v>0.4159516617265092</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.376748923100042</v>
+        <v>0.3752113350045632</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2008927390841384</v>
+        <v>0.2003036316083793</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3595365054260688</v>
+        <v>0.3609574382287812</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4163729689347302</v>
+        <v>0.4150405642030029</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3820237300248164</v>
+        <v>0.384163173848027</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2161832289214521</v>
+        <v>0.2171185912273697</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3311349645034042</v>
+        <v>0.3314070318207269</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4101783018810876</v>
+        <v>0.4105199054624102</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3751675012593411</v>
+        <v>0.3762142398203986</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2055197286570746</v>
+        <v>0.204522147321166</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>122806</v>
+        <v>125282</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>141918</v>
+        <v>144326</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>129049</v>
+        <v>128429</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>51591</v>
+        <v>51928</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>139597</v>
+        <v>136171</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>137112</v>
+        <v>138668</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>115615</v>
+        <v>114930</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69938</v>
+        <v>68598</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>275271</v>
+        <v>272918</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>291456</v>
+        <v>293382</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>253749</v>
+        <v>254001</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>134215</v>
+        <v>129560</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>166074</v>
+        <v>164607</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>184699</v>
+        <v>185649</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>168341</v>
+        <v>166718</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>102770</v>
+        <v>103511</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>177329</v>
+        <v>178751</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>178189</v>
+        <v>177865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>152388</v>
+        <v>151021</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>115104</v>
+        <v>114603</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>329102</v>
+        <v>331321</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>349181</v>
+        <v>350375</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>311180</v>
+        <v>308824</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>199876</v>
+        <v>197095</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>178675</v>
+        <v>179796</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>247007</v>
+        <v>246234</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>191817</v>
+        <v>193623</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67700</v>
+        <v>64972</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>175751</v>
+        <v>178416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>206571</v>
+        <v>207355</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>194138</v>
+        <v>195027</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>82482</v>
+        <v>84435</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>373241</v>
+        <v>369592</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>471084</v>
+        <v>468182</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>401623</v>
+        <v>401156</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>162024</v>
+        <v>160762</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>229547</v>
+        <v>232661</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>299612</v>
+        <v>298792</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>238544</v>
+        <v>239951</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>112763</v>
+        <v>111916</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>223421</v>
+        <v>226810</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>256816</v>
+        <v>257727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>237944</v>
+        <v>237632</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>121106</v>
+        <v>122148</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>442569</v>
+        <v>442455</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>537465</v>
+        <v>540370</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>467762</v>
+        <v>466745</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>218134</v>
+        <v>216431</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>167034</v>
+        <v>170614</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>236700</v>
+        <v>235160</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>199702</v>
+        <v>199814</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>110894</v>
+        <v>110421</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>233134</v>
+        <v>234471</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>262432</v>
+        <v>260082</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>224254</v>
+        <v>224716</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>111053</v>
+        <v>111114</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>413937</v>
+        <v>417027</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>512430</v>
+        <v>512432</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>438122</v>
+        <v>438215</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>233369</v>
+        <v>230394</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>213159</v>
+        <v>218026</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>289646</v>
+        <v>289064</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>246828</v>
+        <v>247189</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>154668</v>
+        <v>154394</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>284800</v>
+        <v>285093</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>316488</v>
+        <v>314814</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>273445</v>
+        <v>272991</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>144760</v>
+        <v>147669</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>485668</v>
+        <v>485634</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>585590</v>
+        <v>585211</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>504978</v>
+        <v>509532</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>288141</v>
+        <v>284581</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>146354</v>
+        <v>147036</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>223543</v>
+        <v>219980</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>227484</v>
+        <v>226596</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>125656</v>
+        <v>126965</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>164597</v>
+        <v>160108</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>244733</v>
+        <v>243564</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>229955</v>
+        <v>227706</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>139930</v>
+        <v>141167</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>324064</v>
+        <v>321599</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>479877</v>
+        <v>479589</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>474306</v>
+        <v>473304</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>280076</v>
+        <v>275125</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>190762</v>
+        <v>190784</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>274806</v>
+        <v>271812</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>277444</v>
+        <v>279701</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>168369</v>
+        <v>169063</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>205424</v>
+        <v>205095</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>296933</v>
+        <v>295992</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>279949</v>
+        <v>280934</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>176938</v>
+        <v>174387</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>387623</v>
+        <v>384565</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>553977</v>
+        <v>551925</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>547496</v>
+        <v>546370</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>335395</v>
+        <v>332286</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>98297</v>
+        <v>99682</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>165461</v>
+        <v>165292</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>155023</v>
+        <v>157636</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>80593</v>
+        <v>83365</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>131554</v>
+        <v>130856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>152502</v>
+        <v>153988</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>163565</v>
+        <v>162426</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>114428</v>
+        <v>112461</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>239288</v>
+        <v>240090</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>333555</v>
+        <v>333881</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>332231</v>
+        <v>334370</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>204794</v>
+        <v>203713</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>135028</v>
+        <v>136663</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>208730</v>
+        <v>206407</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>202023</v>
+        <v>199824</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>114532</v>
+        <v>116702</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>167667</v>
+        <v>168238</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>196998</v>
+        <v>195702</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>209965</v>
+        <v>208931</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>144960</v>
+        <v>144337</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>290975</v>
+        <v>290081</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>395557</v>
+        <v>395745</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>393026</v>
+        <v>396215</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>253176</v>
+        <v>250234</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>66569</v>
+        <v>66712</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>115931</v>
+        <v>117719</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>111976</v>
+        <v>110723</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>60103</v>
+        <v>60928</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>99549</v>
+        <v>99708</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>123825</v>
+        <v>122937</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>117522</v>
+        <v>119874</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>66766</v>
+        <v>66957</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>177506</v>
+        <v>176834</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>254713</v>
+        <v>250846</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>239750</v>
+        <v>238181</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>133550</v>
+        <v>134146</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>94584</v>
+        <v>95034</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>155089</v>
+        <v>155986</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>147415</v>
+        <v>146154</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>85441</v>
+        <v>86041</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>131558</v>
+        <v>133601</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>159151</v>
+        <v>161558</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>155001</v>
+        <v>159419</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>91474</v>
+        <v>91412</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>220418</v>
+        <v>220743</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>304653</v>
+        <v>304441</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>289895</v>
+        <v>293025</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>169724</v>
+        <v>169958</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>47900</v>
+        <v>47833</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>75132</v>
+        <v>75807</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>61477</v>
+        <v>62471</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>35363</v>
+        <v>36068</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>82266</v>
+        <v>82226</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>129368</v>
+        <v>130671</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>99641</v>
+        <v>98215</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>63491</v>
+        <v>62472</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>135859</v>
+        <v>136282</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>220499</v>
+        <v>218181</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>169722</v>
+        <v>170184</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>103905</v>
+        <v>104476</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>71791</v>
+        <v>72821</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>107221</v>
+        <v>108512</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>88397</v>
+        <v>91156</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>56590</v>
+        <v>56964</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>115817</v>
+        <v>115983</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>171447</v>
+        <v>172050</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>140215</v>
+        <v>140252</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>88231</v>
+        <v>86861</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>180215</v>
+        <v>181126</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>269676</v>
+        <v>270811</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>217462</v>
+        <v>218476</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>134679</v>
+        <v>137914</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>919850</v>
+        <v>920691</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1298721</v>
+        <v>1296184</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1159393</v>
+        <v>1162998</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>607380</v>
+        <v>606166</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1102129</v>
+        <v>1106220</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1356906</v>
+        <v>1353373</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1234767</v>
+        <v>1244425</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>719517</v>
+        <v>720178</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2053923</v>
+        <v>2054348</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2691764</v>
+        <v>2690298</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2438256</v>
+        <v>2439942</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1347495</v>
+        <v>1346329</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1018650</v>
+        <v>1024420</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1422966</v>
+        <v>1423122</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1278340</v>
+        <v>1273123</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>709245</v>
+        <v>707165</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1214945</v>
+        <v>1219746</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1479147</v>
+        <v>1474414</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1353218</v>
+        <v>1360797</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>807557</v>
+        <v>811051</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2203949</v>
+        <v>2205759</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2860511</v>
+        <v>2862893</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2601906</v>
+        <v>2609166</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1493304</v>
+        <v>1486056</v>
       </c>
     </row>
     <row r="36">
